--- a/Daily/Forecast/Non-Stationarity/Log-Price/keyence.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Log-Price/keyence.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,41 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="C2">
-        <v>11.00867563088388</v>
+        <v>11.17026205931999</v>
       </c>
       <c r="D2">
-        <v>10.68049876075796</v>
+        <v>10.83443818306706</v>
       </c>
       <c r="E2">
-        <v>11.3368525010098</v>
+        <v>11.50608593557292</v>
       </c>
       <c r="F2">
-        <v>11.04292183572449</v>
+        <v>11.15753540949437</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>2585</v>
+      </c>
+      <c r="B3">
+        <v>2585</v>
+      </c>
+      <c r="C3">
+        <v>11.15789166405073</v>
+      </c>
+      <c r="D3">
+        <v>10.82213239163217</v>
+      </c>
+      <c r="E3">
+        <v>11.49365093646929</v>
+      </c>
+      <c r="F3">
+        <v>11.15367578065903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2586</v>
+      </c>
+      <c r="B4">
+        <v>2586</v>
+      </c>
+      <c r="C4">
+        <v>11.15378112130641</v>
+      </c>
+      <c r="D4">
+        <v>10.81808673351997</v>
+      </c>
+      <c r="E4">
+        <v>11.48947550909284</v>
+      </c>
+      <c r="F4">
+        <v>11.1543916515465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2587</v>
+      </c>
+      <c r="B5">
+        <v>2587</v>
+      </c>
+      <c r="C5">
+        <v>11.15434845548233</v>
+      </c>
+      <c r="D5">
+        <v>10.81871889163299</v>
+      </c>
+      <c r="E5">
+        <v>11.48997801933167</v>
+      </c>
+      <c r="F5">
+        <v>11.13939497539241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2588</v>
+      </c>
+      <c r="B6">
+        <v>2588</v>
+      </c>
+      <c r="C6">
+        <v>11.13981656526776</v>
+      </c>
+      <c r="D6">
+        <v>10.80425141838797</v>
+      </c>
+      <c r="E6">
+        <v>11.47538171214754</v>
+      </c>
+      <c r="F6">
+        <v>11.12638024171457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B7">
+        <v>2589</v>
+      </c>
+      <c r="C7">
+        <v>11.12675654200269</v>
+      </c>
+      <c r="D7">
+        <v>10.79125580693206</v>
+      </c>
+      <c r="E7">
+        <v>11.46225727707332</v>
+      </c>
+      <c r="F7">
+        <v>11.12520203833822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B8">
+        <v>2590</v>
+      </c>
+      <c r="C8">
+        <v>11.12521744389386</v>
+      </c>
+      <c r="D8">
+        <v>10.7897813171946</v>
+      </c>
+      <c r="E8">
+        <v>11.46065357059313</v>
+      </c>
+      <c r="F8">
+        <v>11.11185070516336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B9">
+        <v>2591</v>
+      </c>
+      <c r="C9">
+        <v>11.11222208574494</v>
+      </c>
+      <c r="D9">
+        <v>10.77685046323147</v>
+      </c>
+      <c r="E9">
+        <v>11.4475937082584</v>
+      </c>
+      <c r="F9">
+        <v>11.13954025032548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2592</v>
+      </c>
+      <c r="B10">
+        <v>2592</v>
+      </c>
+      <c r="C10">
+        <v>11.13871342438767</v>
+      </c>
+      <c r="D10">
+        <v>10.80340485262473</v>
+      </c>
+      <c r="E10">
+        <v>11.47402199615061</v>
+      </c>
+      <c r="F10">
+        <v>11.13488095243806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2593</v>
+      </c>
+      <c r="B11">
+        <v>2593</v>
+      </c>
+      <c r="C11">
+        <v>11.13497577824679</v>
+      </c>
+      <c r="D11">
+        <v>10.79973183639934</v>
+      </c>
+      <c r="E11">
+        <v>11.47021972009425</v>
+      </c>
+      <c r="F11">
+        <v>11.12505466526301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B12">
+        <v>2594</v>
+      </c>
+      <c r="C12">
+        <v>11.12532805117078</v>
+      </c>
+      <c r="D12">
+        <v>10.79014851009395</v>
+      </c>
+      <c r="E12">
+        <v>11.46050759224761</v>
+      </c>
+      <c r="F12">
+        <v>11.15080716136543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2595</v>
+      </c>
+      <c r="B13">
+        <v>2595</v>
+      </c>
+      <c r="C13">
+        <v>11.1500261181447</v>
+      </c>
+      <c r="D13">
+        <v>10.814909740432</v>
+      </c>
+      <c r="E13">
+        <v>11.48514249585739</v>
+      </c>
+      <c r="F13">
+        <v>11.13415097211511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2596</v>
+      </c>
+      <c r="B14">
+        <v>2596</v>
+      </c>
+      <c r="C14">
+        <v>11.13461305472044</v>
+      </c>
+      <c r="D14">
+        <v>10.79956066921078</v>
+      </c>
+      <c r="E14">
+        <v>11.46966544023011</v>
+      </c>
+      <c r="F14">
+        <v>11.13327429175504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2597</v>
+      </c>
+      <c r="B15">
+        <v>2597</v>
+      </c>
+      <c r="C15">
+        <v>11.13329561021002</v>
+      </c>
+      <c r="D15">
+        <v>10.79830773389879</v>
+      </c>
+      <c r="E15">
+        <v>11.46828348652125</v>
+      </c>
+      <c r="F15">
+        <v>11.112895559352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2598</v>
+      </c>
+      <c r="B16">
+        <v>2598</v>
+      </c>
+      <c r="C16">
+        <v>11.11351033355594</v>
+      </c>
+      <c r="D16">
+        <v>10.7785860137508</v>
+      </c>
+      <c r="E16">
+        <v>11.44843465336108</v>
+      </c>
+      <c r="F16">
+        <v>11.09695537221692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>2599</v>
+      </c>
+      <c r="B17">
+        <v>2599</v>
+      </c>
+      <c r="C17">
+        <v>11.09743033907316</v>
+      </c>
+      <c r="D17">
+        <v>10.76256983944374</v>
+      </c>
+      <c r="E17">
+        <v>11.43229083870259</v>
+      </c>
+      <c r="F17">
+        <v>11.08812462055532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>2600</v>
+      </c>
+      <c r="C18">
+        <v>11.08838236516874</v>
+      </c>
+      <c r="D18">
+        <v>10.75358609584854</v>
+      </c>
+      <c r="E18">
+        <v>11.42317863448893</v>
+      </c>
+      <c r="F18">
+        <v>11.09422313008004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>2601</v>
+      </c>
+      <c r="B19">
+        <v>2601</v>
+      </c>
+      <c r="C19">
+        <v>11.09402726442204</v>
+      </c>
+      <c r="D19">
+        <v>10.75929525655379</v>
+      </c>
+      <c r="E19">
+        <v>11.42875927229029</v>
+      </c>
+      <c r="F19">
+        <v>11.08751271905237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2602</v>
+      </c>
+      <c r="B20">
+        <v>2602</v>
+      </c>
+      <c r="C20">
+        <v>11.08768843910853</v>
+      </c>
+      <c r="D20">
+        <v>10.75302069439685</v>
+      </c>
+      <c r="E20">
+        <v>11.42235618382021</v>
+      </c>
+      <c r="F20">
+        <v>11.10645985652848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2603</v>
+      </c>
+      <c r="B21">
+        <v>2603</v>
+      </c>
+      <c r="C21">
+        <v>11.10587649432106</v>
+      </c>
+      <c r="D21">
+        <v>10.77127225761752</v>
+      </c>
+      <c r="E21">
+        <v>11.4404807310246</v>
+      </c>
+      <c r="F21">
+        <v>11.10796023190371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2604</v>
+      </c>
+      <c r="B22">
+        <v>2604</v>
+      </c>
+      <c r="C22">
+        <v>11.10787829505037</v>
+      </c>
+      <c r="D22">
+        <v>10.77333830485265</v>
+      </c>
+      <c r="E22">
+        <v>11.44241828524808</v>
+      </c>
+      <c r="F22">
+        <v>11.12017912926984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="B23">
+        <v>2605</v>
+      </c>
+      <c r="C23">
+        <v>11.11978958051976</v>
+      </c>
+      <c r="D23">
+        <v>10.78531344680365</v>
+      </c>
+      <c r="E23">
+        <v>11.45426571423588</v>
+      </c>
+      <c r="F23">
+        <v>11.12741003216968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>2606</v>
+      </c>
+      <c r="B24">
+        <v>2606</v>
+      </c>
+      <c r="C24">
+        <v>11.12716332353367</v>
+      </c>
+      <c r="D24">
+        <v>10.79275127293357</v>
+      </c>
+      <c r="E24">
+        <v>11.46157537413376</v>
+      </c>
+      <c r="F24">
+        <v>11.10525793330686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>2607</v>
+      </c>
+      <c r="B25">
+        <v>2607</v>
+      </c>
+      <c r="C25">
+        <v>11.10589608754982</v>
+      </c>
+      <c r="D25">
+        <v>10.77154711953863</v>
+      </c>
+      <c r="E25">
+        <v>11.44024505556101</v>
+      </c>
+      <c r="F25">
+        <v>11.10179433523544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>2608</v>
+      </c>
+      <c r="B26">
+        <v>2608</v>
+      </c>
+      <c r="C26">
+        <v>11.10189789542228</v>
+      </c>
+      <c r="D26">
+        <v>10.76761300180734</v>
+      </c>
+      <c r="E26">
+        <v>11.43618278903721</v>
+      </c>
+      <c r="F26">
+        <v>11.10751035561211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2609</v>
+      </c>
+      <c r="B27">
+        <v>2609</v>
+      </c>
+      <c r="C27">
+        <v>11.10732328201224</v>
+      </c>
+      <c r="D27">
+        <v>10.77310238914937</v>
+      </c>
+      <c r="E27">
+        <v>11.4415441748751</v>
+      </c>
+      <c r="F27">
+        <v>11.10088881147903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>2610</v>
+      </c>
+      <c r="B28">
+        <v>2610</v>
+      </c>
+      <c r="C28">
+        <v>11.10106144450852</v>
+      </c>
+      <c r="D28">
+        <v>10.76690448287628</v>
+      </c>
+      <c r="E28">
+        <v>11.43521840614077</v>
+      </c>
+      <c r="F28">
+        <v>11.10149258508227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>2611</v>
+      </c>
+      <c r="B29">
+        <v>2611</v>
+      </c>
+      <c r="C29">
+        <v>11.10145781438494</v>
+      </c>
+      <c r="D29">
+        <v>10.76736482964914</v>
+      </c>
+      <c r="E29">
+        <v>11.43555079912073</v>
+      </c>
+      <c r="F29">
+        <v>11.10570882382326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2612</v>
+      </c>
+      <c r="B30">
+        <v>2612</v>
+      </c>
+      <c r="C30">
+        <v>11.10556119158157</v>
+      </c>
+      <c r="D30">
+        <v>10.77153214329302</v>
+      </c>
+      <c r="E30">
+        <v>11.43959023987012</v>
+      </c>
+      <c r="F30">
+        <v>11.10751035561211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>2613</v>
+      </c>
+      <c r="B31">
+        <v>2613</v>
+      </c>
+      <c r="C31">
+        <v>11.10743066232135</v>
+      </c>
+      <c r="D31">
+        <v>10.77346551091245</v>
+      </c>
+      <c r="E31">
+        <v>11.44139581373025</v>
+      </c>
+      <c r="F31">
+        <v>11.0628813134641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B32">
+        <v>2614</v>
+      </c>
+      <c r="C32">
+        <v>11.06420373105695</v>
+      </c>
+      <c r="D32">
+        <v>10.73029812587619</v>
+      </c>
+      <c r="E32">
+        <v>11.39810933623771</v>
+      </c>
+      <c r="F32">
+        <v>11.02711760417953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B33">
+        <v>2615</v>
+      </c>
+      <c r="C33">
+        <v>11.0281476926414</v>
+      </c>
+      <c r="D33">
+        <v>10.69430291750734</v>
+      </c>
+      <c r="E33">
+        <v>11.36199246777545</v>
+      </c>
+      <c r="F33">
+        <v>11.03553461729047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>2616</v>
+      </c>
+      <c r="B34">
+        <v>2616</v>
+      </c>
+      <c r="C34">
+        <v>11.03525319596801</v>
+      </c>
+      <c r="D34">
+        <v>10.70147156836903</v>
+      </c>
+      <c r="E34">
+        <v>11.36903482356699</v>
+      </c>
+      <c r="F34">
+        <v>11.03133496647257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>2617</v>
+      </c>
+      <c r="B35">
+        <v>2617</v>
+      </c>
+      <c r="C35">
+        <v>11.03141421909297</v>
+      </c>
+      <c r="D35">
+        <v>10.6976967426491</v>
+      </c>
+      <c r="E35">
+        <v>11.36513169553685</v>
+      </c>
+      <c r="F35">
+        <v>11.02744264887603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>2618</v>
+      </c>
+      <c r="B36">
+        <v>2618</v>
+      </c>
+      <c r="C36">
+        <v>11.02753764392161</v>
+      </c>
+      <c r="D36">
+        <v>10.69388401449581</v>
+      </c>
+      <c r="E36">
+        <v>11.36119127334741</v>
+      </c>
+      <c r="F36">
+        <v>11.01813721890186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2619</v>
+      </c>
+      <c r="B37">
+        <v>2619</v>
+      </c>
+      <c r="C37">
+        <v>11.01838687675551</v>
+      </c>
+      <c r="D37">
+        <v>10.68479675872231</v>
+      </c>
+      <c r="E37">
+        <v>11.3519769947887</v>
+      </c>
+      <c r="F37">
+        <v>11.00940641638668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>2620</v>
+      </c>
+      <c r="B38">
+        <v>2620</v>
+      </c>
+      <c r="C38">
+        <v>11.00964171454514</v>
+      </c>
+      <c r="D38">
+        <v>10.67611507276675</v>
+      </c>
+      <c r="E38">
+        <v>11.34316835632353</v>
+      </c>
+      <c r="F38">
+        <v>11.00209984120424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>2621</v>
+      </c>
+      <c r="B39">
+        <v>2621</v>
+      </c>
+      <c r="C39">
+        <v>11.00228985822367</v>
+      </c>
+      <c r="D39">
+        <v>10.66882670295626</v>
+      </c>
+      <c r="E39">
+        <v>11.33575301349107</v>
+      </c>
+      <c r="F39">
+        <v>11.01006801085341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>2622</v>
+      </c>
+      <c r="B40">
+        <v>2622</v>
+      </c>
+      <c r="C40">
+        <v>11.00969787561419</v>
+      </c>
+      <c r="D40">
+        <v>10.6762967568706</v>
+      </c>
+      <c r="E40">
+        <v>11.34309899435777</v>
+      </c>
+      <c r="F40">
+        <v>10.99305909655209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>2623</v>
+      </c>
+      <c r="B41">
+        <v>2623</v>
+      </c>
+      <c r="C41">
+        <v>10.99352041336386</v>
+      </c>
+      <c r="D41">
+        <v>10.66018369542188</v>
+      </c>
+      <c r="E41">
+        <v>11.32685713130584</v>
+      </c>
+      <c r="F41">
+        <v>10.99859370187495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B42">
+        <v>2624</v>
+      </c>
+      <c r="C42">
+        <v>10.99842918433038</v>
+      </c>
+      <c r="D42">
+        <v>10.66515593484121</v>
+      </c>
+      <c r="E42">
+        <v>11.33170243381955</v>
+      </c>
+      <c r="F42">
+        <v>10.99255442836071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>2625</v>
+      </c>
+      <c r="B43">
+        <v>2625</v>
+      </c>
+      <c r="C43">
+        <v>10.99270486828447</v>
+      </c>
+      <c r="D43">
+        <v>10.6594950237509</v>
+      </c>
+      <c r="E43">
+        <v>11.32591471281803</v>
+      </c>
+      <c r="F43">
+        <v>10.99272267939164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B44">
+        <v>2626</v>
+      </c>
+      <c r="C44">
+        <v>10.99270238627048</v>
+      </c>
+      <c r="D44">
+        <v>10.65955598999648</v>
+      </c>
+      <c r="E44">
+        <v>11.32584878254448</v>
+      </c>
+      <c r="F44">
+        <v>11.00009783853356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>2627</v>
+      </c>
+      <c r="B45">
+        <v>2627</v>
+      </c>
+      <c r="C45">
+        <v>10.99986565240687</v>
+      </c>
+      <c r="D45">
+        <v>10.6667825498058</v>
+      </c>
+      <c r="E45">
+        <v>11.33294875500794</v>
+      </c>
+      <c r="F45">
+        <v>10.98884572552582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>2628</v>
+      </c>
+      <c r="B46">
+        <v>2628</v>
+      </c>
+      <c r="C46">
+        <v>10.98914641315391</v>
+      </c>
+      <c r="D46">
+        <v>10.6561264265434</v>
+      </c>
+      <c r="E46">
+        <v>11.32216639976442</v>
+      </c>
+      <c r="F46">
+        <v>11.00093249345223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>2629</v>
+      </c>
+      <c r="B47">
+        <v>2629</v>
+      </c>
+      <c r="C47">
+        <v>11.00057180969901</v>
+      </c>
+      <c r="D47">
+        <v>10.66761486210837</v>
+      </c>
+      <c r="E47">
+        <v>11.33352875728965</v>
+      </c>
+      <c r="F47">
+        <v>11.02075802302277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>2630</v>
+      </c>
+      <c r="B48">
+        <v>2630</v>
+      </c>
+      <c r="C48">
+        <v>11.02015765939286</v>
+      </c>
+      <c r="D48">
+        <v>10.68726311709881</v>
+      </c>
+      <c r="E48">
+        <v>11.35305220168692</v>
+      </c>
+      <c r="F48">
+        <v>11.02728013973454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>2631</v>
+      </c>
+      <c r="B49">
+        <v>2631</v>
+      </c>
+      <c r="C49">
+        <v>11.02705250960415</v>
+      </c>
+      <c r="D49">
+        <v>10.6942210878314</v>
+      </c>
+      <c r="E49">
+        <v>11.35988393137691</v>
+      </c>
+      <c r="F49">
+        <v>11.00857880730195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>2632</v>
+      </c>
+      <c r="B50">
+        <v>2632</v>
+      </c>
+      <c r="C50">
+        <v>11.00908944286793</v>
+      </c>
+      <c r="D50">
+        <v>10.67632054703278</v>
+      </c>
+      <c r="E50">
+        <v>11.34185833870309</v>
+      </c>
+      <c r="F50">
+        <v>11.02890404395629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>2633</v>
+      </c>
+      <c r="B51">
+        <v>2633</v>
+      </c>
+      <c r="C51">
+        <v>11.02830861726364</v>
+      </c>
+      <c r="D51">
+        <v>10.69560205979816</v>
+      </c>
+      <c r="E51">
+        <v>11.36101517472912</v>
+      </c>
+      <c r="F51">
+        <v>11.01402841206951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B52">
+        <v>2634</v>
+      </c>
+      <c r="C52">
+        <v>11.01442889014046</v>
+      </c>
+      <c r="D52">
+        <v>10.6817850538135</v>
+      </c>
+      <c r="E52">
+        <v>11.34707272646741</v>
+      </c>
+      <c r="F52">
+        <v>11.01928466595834</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>2635</v>
+      </c>
+      <c r="B53">
+        <v>2635</v>
+      </c>
+      <c r="C53">
+        <v>11.01912257092113</v>
+      </c>
+      <c r="D53">
+        <v>10.68654178765908</v>
+      </c>
+      <c r="E53">
+        <v>11.35170335418319</v>
+      </c>
+      <c r="F53">
+        <v>11.01072916790229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>2636</v>
+      </c>
+      <c r="B54">
+        <v>2636</v>
+      </c>
+      <c r="C54">
+        <v>11.01095287668303</v>
+      </c>
+      <c r="D54">
+        <v>10.67843500838054</v>
+      </c>
+      <c r="E54">
+        <v>11.34347074498553</v>
+      </c>
+      <c r="F54">
+        <v>11.01205017205741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>2637</v>
+      </c>
+      <c r="B55">
+        <v>2637</v>
+      </c>
+      <c r="C55">
+        <v>11.01199585081036</v>
+      </c>
+      <c r="D55">
+        <v>10.67954104693289</v>
+      </c>
+      <c r="E55">
+        <v>11.34445065468783</v>
+      </c>
+      <c r="F55">
+        <v>11.00559373045849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>2638</v>
+      </c>
+      <c r="B56">
+        <v>2638</v>
+      </c>
+      <c r="C56">
+        <v>11.00575765849487</v>
+      </c>
+      <c r="D56">
+        <v>10.67336576450177</v>
+      </c>
+      <c r="E56">
+        <v>11.33814955248796</v>
+      </c>
+      <c r="F56">
+        <v>11.01039864401893</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>2639</v>
+      </c>
+      <c r="B57">
+        <v>2639</v>
+      </c>
+      <c r="C57">
+        <v>11.0102364193792</v>
+      </c>
+      <c r="D57">
+        <v>10.67790744803887</v>
+      </c>
+      <c r="E57">
+        <v>11.34256539071952</v>
+      </c>
+      <c r="F57">
+        <v>11.01402841206951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B58">
+        <v>2640</v>
+      </c>
+      <c r="C58">
+        <v>11.01387743532884</v>
+      </c>
+      <c r="D58">
+        <v>10.68161126523945</v>
+      </c>
+      <c r="E58">
+        <v>11.34614360541824</v>
+      </c>
+      <c r="F58">
+        <v>11.00043178410354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>2641</v>
+      </c>
+      <c r="B59">
+        <v>2641</v>
+      </c>
+      <c r="C59">
+        <v>11.00081937614316</v>
+      </c>
+      <c r="D59">
+        <v>10.66861581380109</v>
+      </c>
+      <c r="E59">
+        <v>11.33302293848522</v>
+      </c>
+      <c r="F59">
+        <v>10.98495368236927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>2642</v>
+      </c>
+      <c r="B60">
+        <v>2642</v>
+      </c>
+      <c r="C60">
+        <v>10.98539547161158</v>
+      </c>
+      <c r="D60">
+        <v>10.65325428090749</v>
+      </c>
+      <c r="E60">
+        <v>11.31753666231567</v>
+      </c>
+      <c r="F60">
+        <v>10.95936629861734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>2643</v>
+      </c>
+      <c r="B61">
+        <v>2643</v>
+      </c>
+      <c r="C61">
+        <v>10.9600999226605</v>
+      </c>
+      <c r="D61">
+        <v>10.6280201246604</v>
+      </c>
+      <c r="E61">
+        <v>11.2921797206606</v>
+      </c>
+      <c r="F61">
+        <v>10.97078115794681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>2644</v>
+      </c>
+      <c r="B62">
+        <v>2644</v>
+      </c>
+      <c r="C62">
+        <v>10.97045030237239</v>
+      </c>
+      <c r="D62">
+        <v>10.63843305914092</v>
+      </c>
+      <c r="E62">
+        <v>11.30246754560386</v>
+      </c>
+      <c r="F62">
+        <v>10.95430917736789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>2645</v>
+      </c>
+      <c r="B63">
+        <v>2645</v>
+      </c>
+      <c r="C63">
+        <v>10.95476409007015</v>
+      </c>
+      <c r="D63">
+        <v>10.62280897760324</v>
+      </c>
+      <c r="E63">
+        <v>11.28671920253706</v>
+      </c>
+      <c r="F63">
+        <v>10.96578157853013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B64">
+        <v>2646</v>
+      </c>
+      <c r="C64">
+        <v>10.96542735851958</v>
+      </c>
+      <c r="D64">
+        <v>10.63353474198059</v>
+      </c>
+      <c r="E64">
+        <v>11.29731997505857</v>
+      </c>
+      <c r="F64">
+        <v>10.98189713388672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>2647</v>
+      </c>
+      <c r="B65">
+        <v>2647</v>
+      </c>
+      <c r="C65">
+        <v>10.98138656762399</v>
+      </c>
+      <c r="D65">
+        <v>10.64955605370663</v>
+      </c>
+      <c r="E65">
+        <v>11.31321708154135</v>
+      </c>
+      <c r="F65">
+        <v>10.96145144272643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>2648</v>
+      </c>
+      <c r="B66">
+        <v>2648</v>
+      </c>
+      <c r="C66">
+        <v>10.96202313840551</v>
+      </c>
+      <c r="D66">
+        <v>10.63025444879083</v>
+      </c>
+      <c r="E66">
+        <v>11.29379182802019</v>
+      </c>
+      <c r="F66">
+        <v>10.96888770699812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>2649</v>
+      </c>
+      <c r="B67">
+        <v>2649</v>
+      </c>
+      <c r="C67">
+        <v>10.96866170214948</v>
+      </c>
+      <c r="D67">
+        <v>10.63695554032204</v>
+      </c>
+      <c r="E67">
+        <v>11.30036786397691</v>
+      </c>
+      <c r="F67">
+        <v>10.93613808552648</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B68">
+        <v>2650</v>
+      </c>
+      <c r="C68">
+        <v>10.93709843427916</v>
+      </c>
+      <c r="D68">
+        <v>10.60545249457478</v>
+      </c>
+      <c r="E68">
+        <v>11.26874437398355</v>
+      </c>
+      <c r="F68">
+        <v>10.9295291483694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>2651</v>
+      </c>
+      <c r="B69">
+        <v>2651</v>
+      </c>
+      <c r="C69">
+        <v>10.92973610510465</v>
+      </c>
+      <c r="D69">
+        <v>10.59815266212801</v>
+      </c>
+      <c r="E69">
+        <v>11.26131954808128</v>
+      </c>
+      <c r="F69">
+        <v>10.92287624241385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>2652</v>
+      </c>
+      <c r="B70">
+        <v>2652</v>
+      </c>
+      <c r="C70">
+        <v>10.9230611138296</v>
+      </c>
+      <c r="D70">
+        <v>10.59154008884149</v>
+      </c>
+      <c r="E70">
+        <v>11.2545821388177</v>
+      </c>
+      <c r="F70">
+        <v>10.90907039188905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>2653</v>
+      </c>
+      <c r="B71">
+        <v>2653</v>
+      </c>
+      <c r="C71">
+        <v>10.90946303659125</v>
+      </c>
+      <c r="D71">
+        <v>10.57800406518272</v>
+      </c>
+      <c r="E71">
+        <v>11.24092200799978</v>
+      </c>
+      <c r="F71">
+        <v>10.92809442789374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B72">
+        <v>2654</v>
+      </c>
+      <c r="C72">
+        <v>10.92751454578216</v>
+      </c>
+      <c r="D72">
+        <v>10.59611721686626</v>
+      </c>
+      <c r="E72">
+        <v>11.25891187469806</v>
+      </c>
+      <c r="F72">
+        <v>10.92179320981701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>2655</v>
+      </c>
+      <c r="B73">
+        <v>2655</v>
+      </c>
+      <c r="C73">
+        <v>10.92194561376347</v>
+      </c>
+      <c r="D73">
+        <v>10.5906106848705</v>
+      </c>
+      <c r="E73">
+        <v>11.25328054265645</v>
+      </c>
+      <c r="F73">
+        <v>10.92413829973453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>2656</v>
+      </c>
+      <c r="B74">
+        <v>2656</v>
+      </c>
+      <c r="C74">
+        <v>10.92405346726773</v>
+      </c>
+      <c r="D74">
+        <v>10.59278091161576</v>
+      </c>
+      <c r="E74">
+        <v>11.25532602291969</v>
+      </c>
+      <c r="F74">
+        <v>10.92449859518069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B75">
+        <v>2657</v>
+      </c>
+      <c r="C75">
+        <v>10.92446390908975</v>
+      </c>
+      <c r="D75">
+        <v>10.59325367313292</v>
+      </c>
+      <c r="E75">
+        <v>11.25567414504659</v>
+      </c>
+      <c r="F75">
+        <v>10.90980178705787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>2658</v>
+      </c>
+      <c r="B76">
+        <v>2658</v>
+      </c>
+      <c r="C76">
+        <v>10.91021856576786</v>
+      </c>
+      <c r="D76">
+        <v>10.57907003671679</v>
+      </c>
+      <c r="E76">
+        <v>11.24136709481894</v>
+      </c>
+      <c r="F76">
+        <v>10.91126297453246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>2659</v>
+      </c>
+      <c r="B77">
+        <v>2659</v>
+      </c>
+      <c r="C77">
+        <v>10.91121264387954</v>
+      </c>
+      <c r="D77">
+        <v>10.58012654534476</v>
+      </c>
+      <c r="E77">
+        <v>11.24229874241431</v>
+      </c>
+      <c r="F77">
+        <v>10.92215435102715</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B78">
+        <v>2660</v>
+      </c>
+      <c r="C78">
+        <v>10.92181517860333</v>
+      </c>
+      <c r="D78">
+        <v>10.5907910529505</v>
+      </c>
+      <c r="E78">
+        <v>11.25283930425616</v>
+      </c>
+      <c r="F78">
+        <v>10.91581547260722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>2661</v>
+      </c>
+      <c r="B79">
+        <v>2661</v>
+      </c>
+      <c r="C79">
+        <v>10.9159767222476</v>
+      </c>
+      <c r="D79">
+        <v>10.58501472907536</v>
+      </c>
+      <c r="E79">
+        <v>11.24693871541984</v>
+      </c>
+      <c r="F79">
+        <v>10.92755587658371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>2662</v>
+      </c>
+      <c r="B80">
+        <v>2662</v>
+      </c>
+      <c r="C80">
+        <v>10.92718724919884</v>
+      </c>
+      <c r="D80">
+        <v>10.59628713469563</v>
+      </c>
+      <c r="E80">
+        <v>11.25808736370205</v>
+      </c>
+      <c r="F80">
+        <v>10.91889937527809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>2663</v>
+      </c>
+      <c r="B81">
+        <v>2663</v>
+      </c>
+      <c r="C81">
+        <v>10.91913134390106</v>
+      </c>
+      <c r="D81">
+        <v>10.58829321684458</v>
+      </c>
+      <c r="E81">
+        <v>11.24996947095755</v>
+      </c>
+      <c r="F81">
+        <v>10.95343466922296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>2664</v>
+      </c>
+      <c r="B82">
+        <v>2664</v>
+      </c>
+      <c r="C82">
+        <v>10.95236766064347</v>
+      </c>
+      <c r="D82">
+        <v>10.6215890695041</v>
+      </c>
+      <c r="E82">
+        <v>11.28314625178285</v>
+      </c>
+      <c r="F82">
+        <v>10.95623040754578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>2665</v>
+      </c>
+      <c r="B83">
+        <v>2665</v>
+      </c>
+      <c r="C83">
+        <v>10.95608145223853</v>
+      </c>
+      <c r="D83">
+        <v>10.62536479443789</v>
+      </c>
+      <c r="E83">
+        <v>11.28679811003916</v>
+      </c>
+      <c r="F83">
+        <v>10.93078284245319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>2666</v>
+      </c>
+      <c r="B84">
+        <v>2666</v>
+      </c>
+      <c r="C84">
+        <v>10.9315371041765</v>
+      </c>
+      <c r="D84">
+        <v>10.60088117841534</v>
+      </c>
+      <c r="E84">
+        <v>11.26219302993766</v>
+      </c>
+      <c r="F84">
+        <v>10.94658713127398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>2667</v>
+      </c>
+      <c r="B85">
+        <v>2667</v>
+      </c>
+      <c r="C85">
+        <v>10.94595882243911</v>
+      </c>
+      <c r="D85">
+        <v>10.61536367788746</v>
+      </c>
+      <c r="E85">
+        <v>11.27655396699076</v>
+      </c>
+      <c r="F85">
+        <v>10.94729160470924</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>2668</v>
+      </c>
+      <c r="B86">
+        <v>2668</v>
+      </c>
+      <c r="C86">
+        <v>10.94723229570176</v>
+      </c>
+      <c r="D86">
+        <v>10.6166997758847</v>
+      </c>
+      <c r="E86">
+        <v>11.27776481551883</v>
+      </c>
+      <c r="F86">
+        <v>10.92070900298872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>2669</v>
+      </c>
+      <c r="B87">
+        <v>2669</v>
+      </c>
+      <c r="C87">
+        <v>10.92150719283613</v>
+      </c>
+      <c r="D87">
+        <v>10.59103508771222</v>
+      </c>
+      <c r="E87">
+        <v>11.25197929796004</v>
+      </c>
+      <c r="F87">
+        <v>10.90833846138976</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B88">
+        <v>2670</v>
+      </c>
+      <c r="C88">
+        <v>10.90872478311565</v>
+      </c>
+      <c r="D88">
+        <v>10.57831422586824</v>
+      </c>
+      <c r="E88">
+        <v>11.23913534036306</v>
+      </c>
+      <c r="F88">
+        <v>10.88406677429264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>2671</v>
+      </c>
+      <c r="B89">
+        <v>2671</v>
+      </c>
+      <c r="C89">
+        <v>10.88476080111547</v>
+      </c>
+      <c r="D89">
+        <v>10.55441079900371</v>
+      </c>
+      <c r="E89">
+        <v>11.21511080322723</v>
+      </c>
+      <c r="F89">
+        <v>10.88012051341645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>2672</v>
+      </c>
+      <c r="B90">
+        <v>2672</v>
+      </c>
+      <c r="C90">
+        <v>10.88024255015174</v>
+      </c>
+      <c r="D90">
+        <v>10.54995430432834</v>
+      </c>
+      <c r="E90">
+        <v>11.21053079597515</v>
+      </c>
+      <c r="F90">
+        <v>10.88350397529083</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>2673</v>
+      </c>
+      <c r="B91">
+        <v>2673</v>
+      </c>
+      <c r="C91">
+        <v>10.88338663719425</v>
+      </c>
+      <c r="D91">
+        <v>10.55316015241066</v>
+      </c>
+      <c r="E91">
+        <v>11.21361312197784</v>
+      </c>
+      <c r="F91">
+        <v>10.86589822002384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>2674</v>
+      </c>
+      <c r="B92">
+        <v>2674</v>
+      </c>
+      <c r="C92">
+        <v>10.86640758876986</v>
+      </c>
+      <c r="D92">
+        <v>10.5362421958511</v>
+      </c>
+      <c r="E92">
+        <v>11.19657298168862</v>
+      </c>
+      <c r="F92">
+        <v>10.87899014404213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>2675</v>
+      </c>
+      <c r="B93">
+        <v>2675</v>
+      </c>
+      <c r="C93">
+        <v>10.87858850983588</v>
+      </c>
+      <c r="D93">
+        <v>10.54848449180468</v>
+      </c>
+      <c r="E93">
+        <v>11.20869252786708</v>
+      </c>
+      <c r="F93">
+        <v>10.95623040754578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>2676</v>
+      </c>
+      <c r="B94">
+        <v>2676</v>
+      </c>
+      <c r="C94">
+        <v>10.9539215827116</v>
+      </c>
+      <c r="D94">
+        <v>10.62386613937047</v>
+      </c>
+      <c r="E94">
+        <v>11.28397702605274</v>
+      </c>
+      <c r="F94">
+        <v>10.97078115794681</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>2677</v>
+      </c>
+      <c r="B95">
+        <v>2677</v>
+      </c>
+      <c r="C95">
+        <v>10.97028722867788</v>
+      </c>
+      <c r="D95">
+        <v>10.64029280163608</v>
+      </c>
+      <c r="E95">
+        <v>11.30028165571968</v>
+      </c>
+      <c r="F95">
+        <v>10.99221784134979</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B96">
+        <v>2678</v>
+      </c>
+      <c r="C96">
+        <v>10.99159187190775</v>
+      </c>
+      <c r="D96">
+        <v>10.66165804258931</v>
+      </c>
+      <c r="E96">
+        <v>11.32152570122618</v>
+      </c>
+      <c r="F96">
+        <v>11.01172008458123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>2679</v>
+      </c>
+      <c r="B97">
+        <v>2679</v>
+      </c>
+      <c r="C97">
+        <v>11.01115321014012</v>
+      </c>
+      <c r="D97">
+        <v>10.68128008475086</v>
+      </c>
+      <c r="E97">
+        <v>11.34102633552937</v>
+      </c>
+      <c r="F97">
+        <v>11.03746698504153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>2680</v>
+      </c>
+      <c r="B98">
+        <v>2680</v>
+      </c>
+      <c r="C98">
+        <v>11.03674633580087</v>
+      </c>
+      <c r="D98">
+        <v>10.70693325569711</v>
+      </c>
+      <c r="E98">
+        <v>11.36655941590463</v>
+      </c>
+      <c r="F98">
+        <v>11.01039864401893</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>2681</v>
+      </c>
+      <c r="B99">
+        <v>2681</v>
+      </c>
+      <c r="C99">
+        <v>11.01109878380912</v>
+      </c>
+      <c r="D99">
+        <v>10.68134570382855</v>
+      </c>
+      <c r="E99">
+        <v>11.34085186378969</v>
+      </c>
+      <c r="F99">
+        <v>11.00957185604294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>2682</v>
+      </c>
+      <c r="B100">
+        <v>2682</v>
+      </c>
+      <c r="C100">
+        <v>11.00959147786978</v>
+      </c>
+      <c r="D100">
+        <v>10.67989984403788</v>
+      </c>
+      <c r="E100">
+        <v>11.33928311170167</v>
+      </c>
+      <c r="F100">
+        <v>11.00409784386691</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>2683</v>
+      </c>
+      <c r="B101">
+        <v>2683</v>
+      </c>
+      <c r="C101">
+        <v>11.00422910695627</v>
+      </c>
+      <c r="D101">
+        <v>10.67459889066686</v>
+      </c>
+      <c r="E101">
+        <v>11.33385932324568</v>
+      </c>
+      <c r="F101">
+        <v>10.99976378140669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2684</v>
+      </c>
+      <c r="B102">
+        <v>2684</v>
+      </c>
+      <c r="C102">
+        <v>10.99986663902345</v>
+      </c>
+      <c r="D102">
+        <v>10.67029779078236</v>
+      </c>
+      <c r="E102">
+        <v>11.32943548726455</v>
+      </c>
+      <c r="F102">
+        <v>10.99356351018195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B103">
+        <v>2685</v>
+      </c>
+      <c r="C103">
+        <v>10.99371592667836</v>
+      </c>
+      <c r="D103">
+        <v>10.66420836680715</v>
+      </c>
+      <c r="E103">
+        <v>11.32322348654957</v>
+      </c>
+      <c r="F103">
+        <v>10.9982591418183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>2686</v>
+      </c>
+      <c r="B104">
+        <v>2686</v>
+      </c>
+      <c r="C104">
+        <v>10.99811279241048</v>
+      </c>
+      <c r="D104">
+        <v>10.66866651164939</v>
+      </c>
+      <c r="E104">
+        <v>11.32755907317157</v>
+      </c>
+      <c r="F104">
+        <v>11.03117308868995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>2687</v>
+      </c>
+      <c r="B105">
+        <v>2687</v>
+      </c>
+      <c r="C105">
+        <v>11.03025267045826</v>
+      </c>
+      <c r="D105">
+        <v>10.70086527446036</v>
+      </c>
+      <c r="E105">
+        <v>11.35964006645616</v>
+      </c>
+      <c r="F105">
+        <v>11.05168334139307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>2688</v>
+      </c>
+      <c r="B106">
+        <v>2688</v>
+      </c>
+      <c r="C106">
+        <v>11.05109533914706</v>
+      </c>
+      <c r="D106">
+        <v>10.72176827120849</v>
+      </c>
+      <c r="E106">
+        <v>11.38042240708563</v>
+      </c>
+      <c r="F106">
+        <v>11.05263451457829</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>2689</v>
+      </c>
+      <c r="B107">
+        <v>2689</v>
+      </c>
+      <c r="C107">
+        <v>11.05256660563236</v>
+      </c>
+      <c r="D107">
+        <v>10.72330071554905</v>
+      </c>
+      <c r="E107">
+        <v>11.38183249571567</v>
+      </c>
+      <c r="F107">
+        <v>11.03939562594793</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B108">
+        <v>2690</v>
+      </c>
+      <c r="C108">
+        <v>11.03970853876563</v>
+      </c>
+      <c r="D108">
+        <v>10.71050341907083</v>
+      </c>
+      <c r="E108">
+        <v>11.36891365846043</v>
+      </c>
+      <c r="F108">
+        <v>11.04627620353707</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B109">
+        <v>2691</v>
+      </c>
+      <c r="C109">
+        <v>11.04608340999859</v>
+      </c>
+      <c r="D109">
+        <v>10.7169395205263</v>
+      </c>
+      <c r="E109">
+        <v>11.37522729947089</v>
+      </c>
+      <c r="F109">
+        <v>11.05800747314253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B110">
+        <v>2692</v>
+      </c>
+      <c r="C110">
+        <v>11.05767283677381</v>
+      </c>
+      <c r="D110">
+        <v>10.72858977621258</v>
+      </c>
+      <c r="E110">
+        <v>11.38675589733504</v>
+      </c>
+      <c r="F110">
+        <v>11.05374307435608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B111">
+        <v>2693</v>
+      </c>
+      <c r="C111">
+        <v>11.0538281091481</v>
+      </c>
+      <c r="D111">
+        <v>10.72480612199019</v>
+      </c>
+      <c r="E111">
+        <v>11.38285009630601</v>
+      </c>
+      <c r="F111">
+        <v>11.03440567595615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B112">
+        <v>2694</v>
+      </c>
+      <c r="C112">
+        <v>11.0348969956344</v>
+      </c>
+      <c r="D112">
+        <v>10.70593521258222</v>
+      </c>
+      <c r="E112">
+        <v>11.36385877868659</v>
+      </c>
+      <c r="F112">
+        <v>11.02971500823721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B113">
+        <v>2695</v>
+      </c>
+      <c r="C113">
+        <v>11.0298236136202</v>
+      </c>
+      <c r="D113">
+        <v>10.70092277741261</v>
+      </c>
+      <c r="E113">
+        <v>11.35872444982778</v>
+      </c>
+      <c r="F113">
+        <v>11.04196137462937</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B114">
+        <v>2696</v>
+      </c>
+      <c r="C114">
+        <v>11.04162187040719</v>
+      </c>
+      <c r="D114">
+        <v>10.7127817993206</v>
+      </c>
+      <c r="E114">
+        <v>11.37046194149377</v>
+      </c>
+      <c r="F114">
+        <v>11.05643018574929</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>2697</v>
+      </c>
+      <c r="B115">
+        <v>2697</v>
+      </c>
+      <c r="C115">
+        <v>11.0560231581038</v>
+      </c>
+      <c r="D115">
+        <v>10.72724358499629</v>
+      </c>
+      <c r="E115">
+        <v>11.38480273121132</v>
+      </c>
+      <c r="F115">
+        <v>11.04547856450618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B116">
+        <v>2698</v>
+      </c>
+      <c r="C116">
+        <v>11.04573510228704</v>
+      </c>
+      <c r="D116">
+        <v>10.71701620162144</v>
+      </c>
+      <c r="E116">
+        <v>11.37445400295263</v>
+      </c>
+      <c r="F116">
+        <v>11.03827103750907</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B117">
+        <v>2699</v>
+      </c>
+      <c r="C117">
+        <v>11.03844762874888</v>
+      </c>
+      <c r="D117">
+        <v>10.70978953254479</v>
+      </c>
+      <c r="E117">
+        <v>11.36710572495298</v>
+      </c>
+      <c r="F117">
+        <v>11.01600274637323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B118">
+        <v>2700</v>
+      </c>
+      <c r="C118">
+        <v>11.01656793352305</v>
+      </c>
+      <c r="D118">
+        <v>10.68796959677947</v>
+      </c>
+      <c r="E118">
+        <v>11.34516627026663</v>
+      </c>
+      <c r="F118">
+        <v>11.04051895110818</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B119">
+        <v>2701</v>
+      </c>
+      <c r="C119">
+        <v>11.03986682417206</v>
+      </c>
+      <c r="D119">
+        <v>10.71132799467797</v>
+      </c>
+      <c r="E119">
+        <v>11.36840565366614</v>
+      </c>
+      <c r="F119">
+        <v>11.01780913490942</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B120">
+        <v>2702</v>
+      </c>
+      <c r="C120">
+        <v>11.01838865324342</v>
+      </c>
+      <c r="D120">
+        <v>10.68990967366427</v>
+      </c>
+      <c r="E120">
+        <v>11.34686763282257</v>
+      </c>
+      <c r="F120">
+        <v>11.0007656181911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B121">
+        <v>2703</v>
+      </c>
+      <c r="C121">
+        <v>11.00121899538246</v>
+      </c>
+      <c r="D121">
+        <v>10.67280011344549</v>
+      </c>
+      <c r="E121">
+        <v>11.32963787731942</v>
+      </c>
+      <c r="F121">
+        <v>11.01616709841567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B122">
+        <v>2704</v>
+      </c>
+      <c r="C122">
+        <v>11.01574236585595</v>
+      </c>
+      <c r="D122">
+        <v>10.68738372841975</v>
+      </c>
+      <c r="E122">
+        <v>11.34410100329215</v>
+      </c>
+      <c r="F122">
+        <v>11.01797319036053</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B123">
+        <v>2705</v>
+      </c>
+      <c r="C123">
+        <v>11.01789355850517</v>
+      </c>
+      <c r="D123">
+        <v>10.68959560256376</v>
+      </c>
+      <c r="E123">
+        <v>11.34619151444658</v>
+      </c>
+      <c r="F123">
+        <v>11.0187930641459</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B124">
+        <v>2706</v>
+      </c>
+      <c r="C124">
+        <v>11.01874270848564</v>
+      </c>
+      <c r="D124">
+        <v>10.69050536507103</v>
+      </c>
+      <c r="E124">
+        <v>11.34698005190025</v>
+      </c>
+      <c r="F124">
+        <v>11.00841320326083</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B125">
+        <v>2707</v>
+      </c>
+      <c r="C125">
+        <v>11.00867563088388</v>
+      </c>
+      <c r="D125">
+        <v>10.68049876075796</v>
+      </c>
+      <c r="E125">
+        <v>11.3368525010098</v>
+      </c>
+      <c r="F125">
+        <v>11.04292183572449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>2708</v>
       </c>
-      <c r="B3">
+      <c r="B126">
         <v>2708</v>
       </c>
-      <c r="C3">
+      <c r="C126">
         <v>11.04192076509159</v>
       </c>
-      <c r="D3">
+      <c r="D126">
         <v>10.71380187955209</v>
       </c>
-      <c r="E3">
+      <c r="E126">
         <v>11.3700396506311</v>
       </c>
-      <c r="F3">
+      <c r="F126">
         <v>11.03262904623906</v>
       </c>
     </row>
